--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H50_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W5_H50_B32.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5535714285714286</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5535714285714286</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7126436781609196</v>
+        <v>0.7052023121387284</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4494047619047619</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08296377886703347</v>
+        <v>0.09118898341257918</v>
       </c>
       <c r="J2" t="n">
-        <v>1092.588121284205</v>
+        <v>1220.205724298026</v>
       </c>
       <c r="K2" t="n">
-        <v>1690570.478028942</v>
+        <v>2197189.224809234</v>
       </c>
       <c r="L2" t="n">
-        <v>1300.219396113188</v>
+        <v>1482.291882460818</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6884479696435626</v>
+        <v>0.5950841606646792</v>
       </c>
     </row>
   </sheetData>
